--- a/legislature_20210125.xlsx
+++ b/legislature_20210125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\rstudio_default\pol_fuoricontesto\legislature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EFDECA-02CF-44FF-A410-A42FBB061942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FAC23D-3EA6-49EB-B8D5-7DA1AD2B0CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA036FD-B706-457C-9E38-E1111F2A78BC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="97">
   <si>
     <t>paese</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Spagna</t>
+  </si>
+  <si>
+    <t>Lussemburgo</t>
+  </si>
+  <si>
+    <t>Austria</t>
   </si>
 </sst>
 </file>
@@ -402,8 +408,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{714C403F-AF67-41FE-B455-D5B93BEA0AAB}" name="Tabella1" displayName="Tabella1" ref="A1:I271" totalsRowShown="0">
-  <autoFilter ref="A1:I271" xr:uid="{57565825-99DD-4E25-888D-A8B563A6201A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{714C403F-AF67-41FE-B455-D5B93BEA0AAB}" name="Tabella1" displayName="Tabella1" ref="A1:I306" totalsRowShown="0">
+  <autoFilter ref="A1:I306" xr:uid="{57565825-99DD-4E25-888D-A8B563A6201A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{618F1481-1CB5-4F15-A26B-ADBF71E98623}" name="paese"/>
     <tableColumn id="6" xr3:uid="{1527285D-6DBC-449D-97C5-59B773E384CB}" name="assemblea"/>
@@ -716,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB721021-4E39-4ED1-AF37-73AC7FFEE469}">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="92" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="92" workbookViewId="0">
+      <selection activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6606,6 +6612,700 @@
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>95</v>
+      </c>
+      <c r="D272" s="5">
+        <v>19874</v>
+      </c>
+      <c r="E272" s="5">
+        <v>21582</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D273" s="5">
+        <f t="shared" ref="D273:D306" si="6">E272</f>
+        <v>21582</v>
+      </c>
+      <c r="E273" s="5">
+        <v>23535</v>
+      </c>
+      <c r="F273" s="4">
+        <v>5</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D274" s="5">
+        <f t="shared" si="6"/>
+        <v>23535</v>
+      </c>
+      <c r="E274" s="5">
+        <v>25187</v>
+      </c>
+      <c r="F274" s="4">
+        <v>5</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D275" s="5">
+        <f t="shared" si="6"/>
+        <v>25187</v>
+      </c>
+      <c r="E275" s="5">
+        <v>27175</v>
+      </c>
+      <c r="F275" s="4">
+        <v>5</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D276" s="5">
+        <f t="shared" si="6"/>
+        <v>27175</v>
+      </c>
+      <c r="E276" s="5">
+        <v>29016</v>
+      </c>
+      <c r="F276" s="4">
+        <v>5</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D277" s="5">
+        <f t="shared" si="6"/>
+        <v>29016</v>
+      </c>
+      <c r="E277" s="5">
+        <v>30850</v>
+      </c>
+      <c r="F277" s="4">
+        <v>5</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D278" s="5">
+        <f t="shared" si="6"/>
+        <v>30850</v>
+      </c>
+      <c r="E278" s="5">
+        <v>32677</v>
+      </c>
+      <c r="F278" s="4">
+        <v>5</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" s="5">
+        <f t="shared" si="6"/>
+        <v>32677</v>
+      </c>
+      <c r="E279" s="5">
+        <v>34497</v>
+      </c>
+      <c r="F279" s="4">
+        <v>5</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D280" s="5">
+        <f t="shared" si="6"/>
+        <v>34497</v>
+      </c>
+      <c r="E280" s="5">
+        <v>36324</v>
+      </c>
+      <c r="F280" s="4">
+        <v>5</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D281" s="5">
+        <f t="shared" si="6"/>
+        <v>36324</v>
+      </c>
+      <c r="E281" s="5">
+        <v>38151</v>
+      </c>
+      <c r="F281" s="4">
+        <v>5</v>
+      </c>
+      <c r="G281" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="5">
+        <f t="shared" si="6"/>
+        <v>38151</v>
+      </c>
+      <c r="E282" s="5">
+        <v>39971</v>
+      </c>
+      <c r="F282" s="4">
+        <v>5</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" s="5">
+        <f t="shared" si="6"/>
+        <v>39971</v>
+      </c>
+      <c r="E283" s="5">
+        <v>41567</v>
+      </c>
+      <c r="F283" s="4">
+        <v>5</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D284" s="5">
+        <f t="shared" si="6"/>
+        <v>41567</v>
+      </c>
+      <c r="E284" s="5">
+        <v>43387</v>
+      </c>
+      <c r="F284" s="4">
+        <v>5</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>96</v>
+      </c>
+      <c r="C285" s="4">
+        <v>6</v>
+      </c>
+      <c r="D285" s="5">
+        <v>16766</v>
+      </c>
+      <c r="E285" s="5">
+        <v>18180</v>
+      </c>
+      <c r="F285" s="4">
+        <v>5</v>
+      </c>
+      <c r="G285" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C286" s="4">
+        <v>7</v>
+      </c>
+      <c r="D286" s="5">
+        <f t="shared" si="6"/>
+        <v>18180</v>
+      </c>
+      <c r="E286" s="5">
+        <v>19412</v>
+      </c>
+      <c r="F286" s="4">
+        <v>5</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C287" s="4">
+        <v>8</v>
+      </c>
+      <c r="D287" s="5">
+        <f t="shared" si="6"/>
+        <v>19412</v>
+      </c>
+      <c r="E287" s="5">
+        <v>20588</v>
+      </c>
+      <c r="F287" s="4">
+        <v>5</v>
+      </c>
+      <c r="G287" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C288" s="4">
+        <v>9</v>
+      </c>
+      <c r="D288" s="5">
+        <f t="shared" si="6"/>
+        <v>20588</v>
+      </c>
+      <c r="E288" s="5">
+        <v>21680</v>
+      </c>
+      <c r="F288" s="4">
+        <v>5</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C289" s="4">
+        <v>10</v>
+      </c>
+      <c r="D289" s="5">
+        <f t="shared" si="6"/>
+        <v>21680</v>
+      </c>
+      <c r="E289" s="5">
+        <v>22968</v>
+      </c>
+      <c r="F289" s="4">
+        <v>5</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C290" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" s="5">
+        <f t="shared" si="6"/>
+        <v>22968</v>
+      </c>
+      <c r="E290" s="5">
+        <v>24172</v>
+      </c>
+      <c r="F290" s="4">
+        <v>5</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C291" s="4">
+        <v>12</v>
+      </c>
+      <c r="D291" s="5">
+        <f t="shared" si="6"/>
+        <v>24172</v>
+      </c>
+      <c r="E291" s="5">
+        <v>25628</v>
+      </c>
+      <c r="F291" s="4">
+        <v>5</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C292" s="4">
+        <v>13</v>
+      </c>
+      <c r="D292" s="5">
+        <f t="shared" si="6"/>
+        <v>25628</v>
+      </c>
+      <c r="E292" s="5">
+        <v>26216</v>
+      </c>
+      <c r="F292" s="4">
+        <v>5</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C293" s="4">
+        <v>14</v>
+      </c>
+      <c r="D293" s="5">
+        <f t="shared" si="6"/>
+        <v>26216</v>
+      </c>
+      <c r="E293" s="5">
+        <v>27672</v>
+      </c>
+      <c r="F293" s="4">
+        <v>5</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C294" s="4">
+        <v>15</v>
+      </c>
+      <c r="D294" s="5">
+        <f t="shared" si="6"/>
+        <v>27672</v>
+      </c>
+      <c r="E294" s="5">
+        <v>28981</v>
+      </c>
+      <c r="F294" s="4">
+        <v>5</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C295" s="4">
+        <v>16</v>
+      </c>
+      <c r="D295" s="5">
+        <f t="shared" si="6"/>
+        <v>28981</v>
+      </c>
+      <c r="E295" s="5">
+        <v>30430</v>
+      </c>
+      <c r="F295" s="4">
+        <v>5</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C296" s="4">
+        <v>17</v>
+      </c>
+      <c r="D296" s="5">
+        <f t="shared" si="6"/>
+        <v>30430</v>
+      </c>
+      <c r="E296" s="5">
+        <v>31739</v>
+      </c>
+      <c r="F296" s="4">
+        <v>5</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C297" s="4">
+        <v>18</v>
+      </c>
+      <c r="D297" s="5">
+        <f t="shared" si="6"/>
+        <v>31739</v>
+      </c>
+      <c r="E297" s="5">
+        <v>33153</v>
+      </c>
+      <c r="F297" s="4">
+        <v>5</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C298" s="4">
+        <v>19</v>
+      </c>
+      <c r="D298" s="5">
+        <f t="shared" si="6"/>
+        <v>33153</v>
+      </c>
+      <c r="E298" s="5">
+        <v>34616</v>
+      </c>
+      <c r="F298" s="4">
+        <v>5</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C299" s="4">
+        <v>20</v>
+      </c>
+      <c r="D299" s="5">
+        <f t="shared" si="6"/>
+        <v>34616</v>
+      </c>
+      <c r="E299" s="5">
+        <v>35050</v>
+      </c>
+      <c r="F299" s="4">
+        <v>5</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C300" s="4">
+        <v>21</v>
+      </c>
+      <c r="D300" s="5">
+        <f t="shared" si="6"/>
+        <v>35050</v>
+      </c>
+      <c r="E300" s="5">
+        <v>36436</v>
+      </c>
+      <c r="F300" s="4">
+        <v>5</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C301" s="4">
+        <v>22</v>
+      </c>
+      <c r="D301" s="5">
+        <f t="shared" si="6"/>
+        <v>36436</v>
+      </c>
+      <c r="E301" s="5">
+        <v>37584</v>
+      </c>
+      <c r="F301" s="4">
+        <v>5</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C302" s="4">
+        <v>23</v>
+      </c>
+      <c r="D302" s="5">
+        <f t="shared" si="6"/>
+        <v>37584</v>
+      </c>
+      <c r="E302" s="5">
+        <v>38991</v>
+      </c>
+      <c r="F302" s="4">
+        <v>5</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303" s="4">
+        <v>24</v>
+      </c>
+      <c r="D303" s="5">
+        <f t="shared" si="6"/>
+        <v>38991</v>
+      </c>
+      <c r="E303" s="5">
+        <v>39719</v>
+      </c>
+      <c r="F303" s="4">
+        <v>5</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C304" s="4">
+        <v>25</v>
+      </c>
+      <c r="D304" s="5">
+        <f t="shared" si="6"/>
+        <v>39719</v>
+      </c>
+      <c r="E304" s="5">
+        <v>41546</v>
+      </c>
+      <c r="F304" s="4">
+        <v>5</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305">
+        <v>26</v>
+      </c>
+      <c r="D305" s="5">
+        <f t="shared" si="6"/>
+        <v>41546</v>
+      </c>
+      <c r="E305" s="5">
+        <v>43023</v>
+      </c>
+      <c r="F305" s="4">
+        <v>5</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C306">
+        <v>27</v>
+      </c>
+      <c r="D306" s="5">
+        <f t="shared" si="6"/>
+        <v>43023</v>
+      </c>
+      <c r="E306" s="5">
+        <v>43737</v>
+      </c>
+      <c r="F306" s="4">
+        <v>5</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
